--- a/topic01-introduction/unit-01a-lectures/talk-2/timetable.xlsx
+++ b/topic01-introduction/unit-01a-lectures/talk-2/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/fun-prog-25/topic01-introduction/unit-01a-lectures/talk-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/fun-prog-26/topic01-introduction/unit-01a-lectures/talk-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03179CB6-8948-ED43-94FF-CAD1D583DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE4E0A-6D7F-8C4F-A5B2-87E5E442AFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1060" windowWidth="28040" windowHeight="17440" xr2:uid="{12B3B812-4830-C349-8EFE-A4D906CFA645}"/>
+    <workbookView xWindow="1440" yWindow="1040" windowWidth="27040" windowHeight="15900" xr2:uid="{12B3B812-4830-C349-8EFE-A4D906CFA645}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,23 +46,23 @@
     <t>Thursday</t>
   </si>
   <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional Programmming Timetable for all students (i.e. no sub-groupings) </t>
+  </si>
+  <si>
     <t>09:15:00 - 10:15
-IT119</t>
+TL238</t>
   </si>
   <si>
     <t xml:space="preserve">12:15 - 13:15
-IT220
+	TL157
 </t>
   </si>
   <si>
     <t>11:15 - 13:15
-IT101</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Programmming Timetable for all students (i.e. no sub-groupings) </t>
+TL245</t>
   </si>
 </sst>
 </file>
@@ -129,9 +129,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -143,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,7 +461,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,13 +472,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -492,15 +492,15 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -508,18 +508,18 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
